--- a/medicine/Pharmacie/Surdosage_en_barbituriques/Surdosage_en_barbituriques.xlsx
+++ b/medicine/Pharmacie/Surdosage_en_barbituriques/Surdosage_en_barbituriques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le surdosage en barbituriques est un empoisonnement dû à des doses excessives de barbituriques[7]. Les symptômes comprennent généralement des difficultés à penser, une mauvaise coordination, une diminution du niveau de conscience et une diminution de l'effort respiratoire (dépression respiratoire)[8]. Les complications d'un surdosage peuvent comporter un œdème pulmonaire non cardiogénique[2]. Si la mort survient, cela est généralement dû à l'absence de respiration[1].
-Une surdose de barbituriques peut survenir par accident ou intentionnellement dans le but de causer la mort[1]. Les effets toxiques s'ajoutent à ceux de l'alcool et des benzodiazépines[1]. La dose létale varie selon la tolérance d'une personne et la façon dont le médicament est pris[1]. Les effets des barbituriques se produisent par le neurotransmetteur GABA[2]. L'exposition peut être vérifiée en testant l'urine ou le sang[3].
-Le traitement consiste à soutenir la respiration et la tension artérielle d'une personne[2],[4]. Bien qu'il n'existe pas un antidote, le charbon de Belloc peut être utile[4],[5]. Plusieurs doses de charbon peuvent être nécessaires[6]. L'hémodialyse peut parfois être envisagée[5]. L'alcalinisation de l'urine ne s'est pas avérée utile[5]. Alors qu'autrefois une cause fréquente de surdosage, les barbituriques sont maintenant une cause rare[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le surdosage en barbituriques est un empoisonnement dû à des doses excessives de barbituriques. Les symptômes comprennent généralement des difficultés à penser, une mauvaise coordination, une diminution du niveau de conscience et une diminution de l'effort respiratoire (dépression respiratoire). Les complications d'un surdosage peuvent comporter un œdème pulmonaire non cardiogénique. Si la mort survient, cela est généralement dû à l'absence de respiration.
+Une surdose de barbituriques peut survenir par accident ou intentionnellement dans le but de causer la mort. Les effets toxiques s'ajoutent à ceux de l'alcool et des benzodiazépines. La dose létale varie selon la tolérance d'une personne et la façon dont le médicament est pris. Les effets des barbituriques se produisent par le neurotransmetteur GABA. L'exposition peut être vérifiée en testant l'urine ou le sang.
+Le traitement consiste à soutenir la respiration et la tension artérielle d'une personne,. Bien qu'il n'existe pas un antidote, le charbon de Belloc peut être utile,. Plusieurs doses de charbon peuvent être nécessaires. L'hémodialyse peut parfois être envisagée. L'alcalinisation de l'urine ne s'est pas avérée utile. Alors qu'autrefois une cause fréquente de surdosage, les barbituriques sont maintenant une cause rare.
 </t>
         </is>
       </c>
